--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_2_6.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_2_6.xlsx
@@ -482,772 +482,772 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4531801155950104</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8923418816211123</v>
+        <v>0.00837758310337533</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08373821269814319</v>
+        <v>0.07809287186954972</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8479192658293048</v>
+        <v>0.05662597979728912</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6051684617996216</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2202469706535339</v>
+        <v>1.915241718292236</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1253088116645813</v>
+        <v>0.8083051443099976</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1755701154470444</v>
+        <v>1.394330263137817</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_8</t>
+          <t>model_2_6_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7988825186005476</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6636392578001509</v>
+        <v>0.00837758310337533</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.386329796743214</v>
+        <v>0.07809287186954972</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4399097338765393</v>
+        <v>0.05662597979728912</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2225777804851532</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G3" t="n">
-        <v>0.688126802444458</v>
+        <v>1.915241718292236</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5998784899711609</v>
+        <v>0.8083051443099976</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6465980410575867</v>
+        <v>1.394330263137817</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_10</t>
+          <t>model_2_6_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8000270745384206</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6611580922095486</v>
+        <v>0.00837758310337533</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.320101976351458</v>
+        <v>0.07809287186954972</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4412739615300847</v>
+        <v>0.05662597979728912</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2213111072778702</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6932027339935303</v>
+        <v>1.915241718292236</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5908210873603821</v>
+        <v>0.8083051443099976</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6450231075286865</v>
+        <v>1.394330263137817</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_9</t>
+          <t>model_2_6_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.800356336020875</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6619896800117027</v>
+        <v>0.00837758310337533</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.310966936476908</v>
+        <v>0.07809287186954972</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4425632477775754</v>
+        <v>0.05662597979728912</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2209466993808746</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6915014982223511</v>
+        <v>1.915241718292236</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5895718336105347</v>
+        <v>0.8083051443099976</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6435347199440002</v>
+        <v>1.394330263137817</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_11</t>
+          <t>model_2_6_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8003814537900468</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6627475514506694</v>
+        <v>0.00837758310337533</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.332271176092116</v>
+        <v>0.07809287186954972</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4420867105263239</v>
+        <v>0.05662597979728912</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2209189087152481</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6899510622024536</v>
+        <v>1.915241718292236</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5924853682518005</v>
+        <v>0.8083051443099976</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6440848708152771</v>
+        <v>1.394330263137817</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_13</t>
+          <t>model_2_6_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8015419608738646</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6617008538415845</v>
+        <v>0.00837758310337533</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.264030629658246</v>
+        <v>0.07809287186954972</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4449096582699565</v>
+        <v>0.05662597979728912</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2196345627307892</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6920923590660095</v>
+        <v>1.915241718292236</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5831527709960938</v>
+        <v>0.8083051443099976</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6408258676528931</v>
+        <v>1.394330263137817</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_12</t>
+          <t>model_2_6_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8021731497966613</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6634414359438097</v>
+        <v>0.00837758310337533</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.257491715053325</v>
+        <v>0.07809287186954972</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4469066413246031</v>
+        <v>0.05662597979728912</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2189360409975052</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6885315179824829</v>
+        <v>1.915241718292236</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5822585225105286</v>
+        <v>0.8083051443099976</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6385204792022705</v>
+        <v>1.394330263137817</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_14</t>
+          <t>model_2_6_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8027516252029849</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C9" t="n">
-        <v>0.656510375338435</v>
+        <v>0.00837758310337533</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.126995435491191</v>
+        <v>0.07809287186954972</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4476789513471706</v>
+        <v>0.05662597979728912</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2182958126068115</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7027110457420349</v>
+        <v>1.915241718292236</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5644116997718811</v>
+        <v>0.8083051443099976</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6376289129257202</v>
+        <v>1.394330263137817</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_5</t>
+          <t>model_2_6_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8029114885359711</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6424740061250205</v>
+        <v>0.00837758310337533</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.467513784184376</v>
+        <v>0.07809287186954972</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4712752392199538</v>
+        <v>0.05662597979728912</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2181189060211182</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7314266562461853</v>
+        <v>1.915241718292236</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4742203652858734</v>
+        <v>0.8083051443099976</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6103881001472473</v>
+        <v>1.394330263137817</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_24</t>
+          <t>model_2_6_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8038776636622083</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6734810879166174</v>
+        <v>0.00837758310337533</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.395228421380317</v>
+        <v>0.07809287186954972</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4486461170290145</v>
+        <v>0.05662597979728912</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2170496433973312</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6679923534393311</v>
+        <v>1.915241718292236</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6010954976081848</v>
+        <v>0.8083051443099976</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6365123391151428</v>
+        <v>1.394330263137817</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_21</t>
+          <t>model_2_6_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.80414237484878</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6717253333280887</v>
+        <v>0.00837758310337533</v>
       </c>
       <c r="D12" t="n">
-        <v>-3.341914628539461</v>
+        <v>0.07809287186954972</v>
       </c>
       <c r="E12" t="n">
-        <v>0.449971437341119</v>
+        <v>0.05662597979728912</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2167566865682602</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6715843677520752</v>
+        <v>1.915241718292236</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5938042402267456</v>
+        <v>0.8083051443099976</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6349822878837585</v>
+        <v>1.394330263137817</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_18</t>
+          <t>model_2_6_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8044535354865918</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6692366026118786</v>
+        <v>0.00837758310337533</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.274164665403781</v>
+        <v>0.07809287186954972</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4514134955598308</v>
+        <v>0.05662597979728912</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2164123058319092</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6766757369041443</v>
+        <v>1.915241718292236</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5845386981964111</v>
+        <v>0.8083051443099976</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6333175301551819</v>
+        <v>1.394330263137817</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_19</t>
+          <t>model_2_6_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8044836833099519</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C14" t="n">
-        <v>0.669934279138702</v>
+        <v>0.00837758310337533</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.286394224820794</v>
+        <v>0.07809287186954972</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4513869225506496</v>
+        <v>0.05662597979728912</v>
       </c>
       <c r="F14" t="n">
-        <v>0.216378927230835</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6752484440803528</v>
+        <v>1.915241718292236</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5862112045288086</v>
+        <v>0.8083051443099976</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6333481669425964</v>
+        <v>1.394330263137817</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_20</t>
+          <t>model_2_6_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8045359109762833</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6706107690233107</v>
+        <v>0.00837758310337533</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.296291940294493</v>
+        <v>0.07809287186954972</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4514693889602224</v>
+        <v>0.05662597979728912</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2163211405277252</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G15" t="n">
-        <v>0.673864483833313</v>
+        <v>1.915241718292236</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5875648856163025</v>
+        <v>0.8083051443099976</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6332529783248901</v>
+        <v>1.394330263137817</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_23</t>
+          <t>model_2_6_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8046393114987215</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6745368802094391</v>
+        <v>0.00837758310337533</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.365083982325618</v>
+        <v>0.07809287186954972</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4513173471011738</v>
+        <v>0.05662597979728912</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2162066847085953</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6658324003219604</v>
+        <v>1.915241718292236</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5969728827476501</v>
+        <v>0.8083051443099976</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6334284543991089</v>
+        <v>1.394330263137817</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_22</t>
+          <t>model_2_6_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8048059186263049</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6741029420075859</v>
+        <v>0.00837758310337533</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.34683114520572</v>
+        <v>0.07809287186954972</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4519283250731775</v>
+        <v>0.05662597979728912</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2160223573446274</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6667201519012451</v>
+        <v>1.915241718292236</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5944766402244568</v>
+        <v>0.8083051443099976</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6327232122421265</v>
+        <v>1.394330263137817</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_17</t>
+          <t>model_2_6_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8052637738581757</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6691046886563765</v>
+        <v>0.00837758310337533</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.224030518280876</v>
+        <v>0.07809287186954972</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4540848529651915</v>
+        <v>0.05662597979728912</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2155156135559082</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6769456267356873</v>
+        <v>1.915241718292236</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5776822566986084</v>
+        <v>0.8083051443099976</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6302335262298584</v>
+        <v>1.394330263137817</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_7</t>
+          <t>model_2_6_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8054203106388649</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6690345722826199</v>
+        <v>0.00837758310337533</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.071384160683037</v>
+        <v>0.07809287186954972</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4625283022938445</v>
+        <v>0.05662597979728912</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2153423875570297</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6770890355110168</v>
+        <v>1.915241718292236</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5568062663078308</v>
+        <v>0.8083051443099976</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6204859614372253</v>
+        <v>1.394330263137817</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_16</t>
+          <t>model_2_6_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8056147323925564</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6707689640778911</v>
+        <v>0.00837758310337533</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.226772061277156</v>
+        <v>0.07809287186954972</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4554935737356329</v>
+        <v>0.05662597979728912</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2151272296905518</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6735408306121826</v>
+        <v>1.915241718292236</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5780572295188904</v>
+        <v>0.8083051443099976</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6286072731018066</v>
+        <v>1.394330263137817</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_15</t>
+          <t>model_2_6_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.805851877686684</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6715701113634617</v>
+        <v>0.00837758310337533</v>
       </c>
       <c r="D21" t="n">
-        <v>-3.225268055421931</v>
+        <v>0.07809287186954972</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4563291535069842</v>
+        <v>0.05662597979728912</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2148647606372833</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6719018816947937</v>
+        <v>1.915241718292236</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5778515338897705</v>
+        <v>0.8083051443099976</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6276425719261169</v>
+        <v>1.394330263137817</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_6</t>
+          <t>model_2_6_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.806463418691141</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6674075772324908</v>
+        <v>0.00837758310337533</v>
       </c>
       <c r="D22" t="n">
-        <v>-2.893586470195412</v>
+        <v>0.07809287186954972</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4709138472545624</v>
+        <v>0.05662597979728912</v>
       </c>
       <c r="F22" t="n">
-        <v>0.21418796479702</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6804175972938538</v>
+        <v>1.915241718292236</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5324904918670654</v>
+        <v>0.8083051443099976</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6108052730560303</v>
+        <v>1.394330263137817</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_4</t>
+          <t>model_2_6_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8100404983375589</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6566399213366629</v>
+        <v>0.00837758310337533</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.885206235997526</v>
+        <v>0.07809287186954972</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5170272356724226</v>
+        <v>0.05662597979728912</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2102291882038116</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7024460434913635</v>
+        <v>1.915241718292236</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3945834636688232</v>
+        <v>0.8083051443099976</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5575695633888245</v>
+        <v>1.394330263137817</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_3</t>
+          <t>model_2_6_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8126217918346171</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6643042182624093</v>
+        <v>0.00837758310337533</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.858710935014667</v>
+        <v>0.07809287186954972</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5256941833717631</v>
+        <v>0.05662597979728912</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2073724567890167</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6867663860321045</v>
+        <v>1.915241718292236</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3909599184989929</v>
+        <v>0.8083051443099976</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5475639700889587</v>
+        <v>1.394330263137817</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_2</t>
+          <t>model_2_6_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8138321735801752</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6740212507557115</v>
+        <v>0.00837758310337533</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.813905437829628</v>
+        <v>0.07809287186954972</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5373086461248096</v>
+        <v>0.05662597979728912</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2060329169034958</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6668872833251953</v>
+        <v>1.915241718292236</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3848323225975037</v>
+        <v>0.8083051443099976</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5341556072235107</v>
+        <v>1.394330263137817</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_1</t>
+          <t>model_2_6_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8174976685802626</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7370570747765885</v>
+        <v>0.00837758310337533</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.509352717439458</v>
+        <v>0.07809287186954972</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6134254148519511</v>
+        <v>0.05662597979728912</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2019762992858887</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5379286408424377</v>
+        <v>1.915241718292236</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3431814014911652</v>
+        <v>0.8083051443099976</v>
       </c>
       <c r="I26" t="n">
-        <v>0.446282297372818</v>
+        <v>1.394330263137817</v>
       </c>
     </row>
   </sheetData>
